--- a/classificao_acoes.xlsx
+++ b/classificao_acoes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\GitHub\kalman_portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\riowanew002p\data\code\notebooks\DEV\Untitled Folder\kalman_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9D8F71-F7F9-4A8C-AFA7-94BE0A50055B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="675" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="675" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="classificao_acoes" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3311" uniqueCount="1306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="1311">
   <si>
     <t>SETOR ECONÔMICO</t>
   </si>
@@ -3941,13 +3940,28 @@
   </si>
   <si>
     <t>VIVT4</t>
+  </si>
+  <si>
+    <t>ABYA</t>
+  </si>
+  <si>
+    <t>ABYA3</t>
+  </si>
+  <si>
+    <t>AGEI</t>
+  </si>
+  <si>
+    <t>AGIN</t>
+  </si>
+  <si>
+    <t>CZLT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4086,6 +4100,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4429,11 +4451,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4754,14 +4777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F591"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
-      <selection activeCell="A591" sqref="A591"/>
+    <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
+      <selection activeCell="B569" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
@@ -4771,7 +4794,7 @@
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4791,7 +4814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -4811,7 +4834,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -4828,7 +4851,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -4848,7 +4871,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -4865,7 +4888,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -4882,7 +4905,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -4899,7 +4922,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -4916,7 +4939,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -4936,7 +4959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -4956,7 +4979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4973,7 +4996,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -4993,7 +5016,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -5013,7 +5036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -5033,7 +5056,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -5053,7 +5076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -5070,7 +5093,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -5087,7 +5110,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -5107,7 +5130,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -5127,7 +5150,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -5144,7 +5167,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>118</v>
       </c>
@@ -5161,7 +5184,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>118</v>
       </c>
@@ -5178,7 +5201,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -5198,7 +5221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -5215,7 +5238,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -5235,7 +5258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -5252,7 +5275,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>118</v>
       </c>
@@ -5272,7 +5295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -5292,7 +5315,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -5312,7 +5335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -5332,7 +5355,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -5352,7 +5375,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>118</v>
       </c>
@@ -5372,7 +5395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -5392,7 +5415,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -5412,7 +5435,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -5432,7 +5455,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -5452,7 +5475,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -5472,7 +5495,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -5489,7 +5512,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -5506,7 +5529,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -5526,7 +5549,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -5546,7 +5569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -5563,7 +5586,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -5583,7 +5606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>118</v>
       </c>
@@ -5600,7 +5623,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -5620,7 +5643,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -5640,7 +5663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -5657,7 +5680,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -5674,7 +5697,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>118</v>
       </c>
@@ -5694,7 +5717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -5711,7 +5734,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -5731,7 +5754,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -5748,7 +5771,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>118</v>
       </c>
@@ -5765,7 +5788,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -5782,7 +5805,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>118</v>
       </c>
@@ -5799,7 +5822,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -5819,7 +5842,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -5839,7 +5862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -5856,7 +5879,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -5873,7 +5896,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -5893,7 +5916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -5913,7 +5936,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -5933,7 +5956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>118</v>
       </c>
@@ -5953,7 +5976,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>118</v>
       </c>
@@ -5970,7 +5993,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -5987,7 +6010,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -6007,7 +6030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -6027,7 +6050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -6044,7 +6067,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -6061,7 +6084,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>118</v>
       </c>
@@ -6078,7 +6101,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -6095,7 +6118,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>118</v>
       </c>
@@ -6112,7 +6135,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -6129,7 +6152,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -6149,7 +6172,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>118</v>
       </c>
@@ -6169,7 +6192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -6186,7 +6209,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>118</v>
       </c>
@@ -6206,7 +6229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>118</v>
       </c>
@@ -6226,7 +6249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -6243,7 +6266,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>118</v>
       </c>
@@ -6263,7 +6286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>118</v>
       </c>
@@ -6283,7 +6306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>118</v>
       </c>
@@ -6303,7 +6326,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>118</v>
       </c>
@@ -6323,7 +6346,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>118</v>
       </c>
@@ -6343,7 +6366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -6360,7 +6383,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>118</v>
       </c>
@@ -6377,7 +6400,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>118</v>
       </c>
@@ -6397,7 +6420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -6414,7 +6437,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>118</v>
       </c>
@@ -6434,7 +6457,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -6451,7 +6474,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -6468,7 +6491,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -6485,7 +6508,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -6505,7 +6528,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -6525,7 +6548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -6545,7 +6568,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -6565,7 +6588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -6585,7 +6608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -6605,7 +6628,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -6625,7 +6648,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -6642,7 +6665,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -6662,7 +6685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -6679,7 +6702,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -6699,7 +6722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -6716,7 +6739,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -6733,7 +6756,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -6750,7 +6773,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -6770,7 +6793,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -6787,7 +6810,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -6807,7 +6830,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -6827,7 +6850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -6847,7 +6870,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -6867,7 +6890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -6884,7 +6907,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -6901,7 +6924,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -6918,7 +6941,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -6938,7 +6961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -6958,7 +6981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -6975,7 +6998,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -6995,7 +7018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -7015,7 +7038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -7032,7 +7055,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -7049,7 +7072,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -7066,7 +7089,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -7086,7 +7109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -7103,7 +7126,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -7123,7 +7146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -7143,7 +7166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -7163,7 +7186,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -7183,7 +7206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -7203,7 +7226,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -7223,7 +7246,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -7243,7 +7266,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -7263,7 +7286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -7280,7 +7303,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -7300,7 +7323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -7320,7 +7343,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -7337,7 +7360,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -7357,7 +7380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -7377,7 +7400,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -7394,7 +7417,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -7411,7 +7434,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -7431,7 +7454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -7451,7 +7474,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -7468,7 +7491,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -7488,7 +7511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -7508,7 +7531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -7528,7 +7551,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -7548,7 +7571,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -7568,7 +7591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -7588,7 +7611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -7608,7 +7631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -7628,7 +7651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -7648,7 +7671,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -7668,7 +7691,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -7688,7 +7711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -7708,7 +7731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -7725,7 +7748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -7745,7 +7768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -7762,7 +7785,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -7782,7 +7805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -7802,7 +7825,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -7822,7 +7845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -7839,7 +7862,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -7859,7 +7882,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -7879,7 +7902,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -7899,7 +7922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -7916,7 +7939,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -7933,7 +7956,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -7953,7 +7976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -7973,7 +7996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -7993,7 +8016,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -8013,7 +8036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -8033,7 +8056,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -8053,7 +8076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -8073,7 +8096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -8093,7 +8116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -8113,7 +8136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -8133,7 +8156,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -8153,7 +8176,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -8170,7 +8193,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -8190,7 +8213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -8210,7 +8233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -8230,7 +8253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -8247,7 +8270,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -8267,7 +8290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -8287,7 +8310,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -8304,7 +8327,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -8324,7 +8347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -8344,7 +8367,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -8364,7 +8387,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -8381,7 +8404,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -8401,7 +8424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -8418,7 +8441,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -8438,7 +8461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -8458,7 +8481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -8478,7 +8501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -8495,7 +8518,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -8512,7 +8535,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -8532,7 +8555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -8549,7 +8572,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -8566,7 +8589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -8586,7 +8609,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -8603,7 +8626,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -8623,7 +8646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -8640,7 +8663,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -8660,7 +8683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -8680,7 +8703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -8700,7 +8723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>13</v>
       </c>
@@ -8720,7 +8743,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -8740,7 +8763,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>13</v>
       </c>
@@ -8760,7 +8783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -8780,7 +8803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -8797,7 +8820,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -8817,7 +8840,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -8837,7 +8860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -8857,7 +8880,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -8877,7 +8900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>13</v>
       </c>
@@ -8894,7 +8917,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>13</v>
       </c>
@@ -8911,7 +8934,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -8931,7 +8954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -8951,7 +8974,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -8971,7 +8994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>13</v>
       </c>
@@ -8991,7 +9014,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -9008,7 +9031,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>13</v>
       </c>
@@ -9028,7 +9051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -9048,7 +9071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -9065,7 +9088,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>13</v>
       </c>
@@ -9085,7 +9108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>13</v>
       </c>
@@ -9105,7 +9128,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -9125,7 +9148,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -9142,7 +9165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>13</v>
       </c>
@@ -9162,7 +9185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -9182,7 +9205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>13</v>
       </c>
@@ -9202,7 +9225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>13</v>
       </c>
@@ -9222,7 +9245,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -9242,7 +9265,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>152</v>
       </c>
@@ -9262,7 +9285,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>152</v>
       </c>
@@ -9282,7 +9305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>152</v>
       </c>
@@ -9302,7 +9325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>152</v>
       </c>
@@ -9322,7 +9345,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>152</v>
       </c>
@@ -9339,7 +9362,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>152</v>
       </c>
@@ -9359,7 +9382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>152</v>
       </c>
@@ -9379,7 +9402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>152</v>
       </c>
@@ -9399,7 +9422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>152</v>
       </c>
@@ -9416,7 +9439,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>152</v>
       </c>
@@ -9436,7 +9459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>152</v>
       </c>
@@ -9456,7 +9479,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>152</v>
       </c>
@@ -9476,7 +9499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>152</v>
       </c>
@@ -9496,7 +9519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>152</v>
       </c>
@@ -9513,7 +9536,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>152</v>
       </c>
@@ -9530,7 +9553,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>152</v>
       </c>
@@ -9547,7 +9570,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>152</v>
       </c>
@@ -9567,7 +9590,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>152</v>
       </c>
@@ -9584,7 +9607,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>152</v>
       </c>
@@ -9601,7 +9624,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>152</v>
       </c>
@@ -9621,7 +9644,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>152</v>
       </c>
@@ -9641,7 +9664,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>152</v>
       </c>
@@ -9658,7 +9681,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>152</v>
       </c>
@@ -9675,7 +9698,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>152</v>
       </c>
@@ -9692,7 +9715,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>152</v>
       </c>
@@ -9712,7 +9735,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>152</v>
       </c>
@@ -9732,7 +9755,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>152</v>
       </c>
@@ -9752,7 +9775,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>152</v>
       </c>
@@ -9772,7 +9795,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>152</v>
       </c>
@@ -9789,7 +9812,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>152</v>
       </c>
@@ -9809,7 +9832,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>152</v>
       </c>
@@ -9826,7 +9849,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>152</v>
       </c>
@@ -9846,7 +9869,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>152</v>
       </c>
@@ -9863,7 +9886,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>152</v>
       </c>
@@ -9880,7 +9903,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>152</v>
       </c>
@@ -9897,7 +9920,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>152</v>
       </c>
@@ -9914,7 +9937,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>152</v>
       </c>
@@ -9934,7 +9957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>152</v>
       </c>
@@ -9954,7 +9977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>152</v>
       </c>
@@ -9974,7 +9997,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>152</v>
       </c>
@@ -9991,7 +10014,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>152</v>
       </c>
@@ -10008,7 +10031,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>152</v>
       </c>
@@ -10025,7 +10048,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>152</v>
       </c>
@@ -10042,7 +10065,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>152</v>
       </c>
@@ -10059,7 +10082,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>152</v>
       </c>
@@ -10076,7 +10099,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>152</v>
       </c>
@@ -10096,7 +10119,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>152</v>
       </c>
@@ -10113,7 +10136,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>152</v>
       </c>
@@ -10133,7 +10156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>152</v>
       </c>
@@ -10153,7 +10176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>152</v>
       </c>
@@ -10170,7 +10193,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>152</v>
       </c>
@@ -10187,7 +10210,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>152</v>
       </c>
@@ -10204,7 +10227,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>152</v>
       </c>
@@ -10224,7 +10247,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>152</v>
       </c>
@@ -10244,7 +10267,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>152</v>
       </c>
@@ -10261,7 +10284,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>152</v>
       </c>
@@ -10278,7 +10301,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>152</v>
       </c>
@@ -10298,7 +10321,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>152</v>
       </c>
@@ -10318,7 +10341,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>152</v>
       </c>
@@ -10338,7 +10361,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>152</v>
       </c>
@@ -10355,7 +10378,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>152</v>
       </c>
@@ -10372,7 +10395,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>152</v>
       </c>
@@ -10392,7 +10415,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>152</v>
       </c>
@@ -10412,7 +10435,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>152</v>
       </c>
@@ -10432,7 +10455,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>152</v>
       </c>
@@ -10452,7 +10475,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>152</v>
       </c>
@@ -10472,7 +10495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>152</v>
       </c>
@@ -10489,7 +10512,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>152</v>
       </c>
@@ -10509,7 +10532,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>152</v>
       </c>
@@ -10526,7 +10549,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>152</v>
       </c>
@@ -10546,7 +10569,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>152</v>
       </c>
@@ -10563,7 +10586,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>152</v>
       </c>
@@ -10583,7 +10606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>152</v>
       </c>
@@ -10603,7 +10626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>152</v>
       </c>
@@ -10623,7 +10646,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>152</v>
       </c>
@@ -10643,7 +10666,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>152</v>
       </c>
@@ -10663,7 +10686,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>152</v>
       </c>
@@ -10680,7 +10703,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>152</v>
       </c>
@@ -10697,7 +10720,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>152</v>
       </c>
@@ -10717,7 +10740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>152</v>
       </c>
@@ -10737,7 +10760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>152</v>
       </c>
@@ -10757,7 +10780,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>152</v>
       </c>
@@ -10774,7 +10797,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>152</v>
       </c>
@@ -10794,7 +10817,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>152</v>
       </c>
@@ -10814,7 +10837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>152</v>
       </c>
@@ -10834,7 +10857,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>152</v>
       </c>
@@ -10851,7 +10874,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>152</v>
       </c>
@@ -10871,7 +10894,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>152</v>
       </c>
@@ -10891,7 +10914,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>152</v>
       </c>
@@ -10911,7 +10934,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>152</v>
       </c>
@@ -10928,7 +10951,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>152</v>
       </c>
@@ -10945,7 +10968,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>152</v>
       </c>
@@ -10962,7 +10985,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>152</v>
       </c>
@@ -10979,7 +11002,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>152</v>
       </c>
@@ -10999,7 +11022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>152</v>
       </c>
@@ -11016,7 +11039,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>152</v>
       </c>
@@ -11036,7 +11059,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>152</v>
       </c>
@@ -11056,7 +11079,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>152</v>
       </c>
@@ -11073,7 +11096,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>152</v>
       </c>
@@ -11093,7 +11116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>152</v>
       </c>
@@ -11113,7 +11136,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>152</v>
       </c>
@@ -11133,7 +11156,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>152</v>
       </c>
@@ -11150,7 +11173,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>152</v>
       </c>
@@ -11167,7 +11190,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>152</v>
       </c>
@@ -11187,7 +11210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>152</v>
       </c>
@@ -11207,7 +11230,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>152</v>
       </c>
@@ -11224,7 +11247,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>152</v>
       </c>
@@ -11241,7 +11264,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>152</v>
       </c>
@@ -11261,7 +11284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>152</v>
       </c>
@@ -11281,7 +11304,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>152</v>
       </c>
@@ -11301,7 +11324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>152</v>
       </c>
@@ -11321,7 +11344,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>152</v>
       </c>
@@ -11341,7 +11364,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>152</v>
       </c>
@@ -11361,7 +11384,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>152</v>
       </c>
@@ -11378,7 +11401,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>152</v>
       </c>
@@ -11398,7 +11421,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>152</v>
       </c>
@@ -11418,7 +11441,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>152</v>
       </c>
@@ -11438,7 +11461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>152</v>
       </c>
@@ -11455,7 +11478,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>152</v>
       </c>
@@ -11472,7 +11495,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>152</v>
       </c>
@@ -11492,7 +11515,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>123</v>
       </c>
@@ -11512,7 +11535,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>123</v>
       </c>
@@ -11532,7 +11555,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>123</v>
       </c>
@@ -11552,7 +11575,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>123</v>
       </c>
@@ -11569,7 +11592,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>123</v>
       </c>
@@ -11586,7 +11609,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>123</v>
       </c>
@@ -11606,7 +11629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>123</v>
       </c>
@@ -11626,7 +11649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>123</v>
       </c>
@@ -11646,7 +11669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>123</v>
       </c>
@@ -11663,7 +11686,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>123</v>
       </c>
@@ -11683,7 +11706,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>123</v>
       </c>
@@ -11703,7 +11726,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>123</v>
       </c>
@@ -11723,7 +11746,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>123</v>
       </c>
@@ -11740,7 +11763,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>123</v>
       </c>
@@ -11760,7 +11783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>123</v>
       </c>
@@ -11777,7 +11800,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>123</v>
       </c>
@@ -11797,7 +11820,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>123</v>
       </c>
@@ -11817,7 +11840,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>123</v>
       </c>
@@ -11834,7 +11857,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>123</v>
       </c>
@@ -11854,7 +11877,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>123</v>
       </c>
@@ -11874,7 +11897,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>123</v>
       </c>
@@ -11891,7 +11914,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>123</v>
       </c>
@@ -11908,7 +11931,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>123</v>
       </c>
@@ -11928,7 +11951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>123</v>
       </c>
@@ -11948,7 +11971,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>123</v>
       </c>
@@ -11965,7 +11988,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>123</v>
       </c>
@@ -11982,7 +12005,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>123</v>
       </c>
@@ -11999,7 +12022,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>123</v>
       </c>
@@ -12019,7 +12042,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>123</v>
       </c>
@@ -12036,7 +12059,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>123</v>
       </c>
@@ -12056,7 +12079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>123</v>
       </c>
@@ -12073,7 +12096,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>123</v>
       </c>
@@ -12090,7 +12113,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>123</v>
       </c>
@@ -12107,7 +12130,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>123</v>
       </c>
@@ -12127,7 +12150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>123</v>
       </c>
@@ -12144,7 +12167,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>123</v>
       </c>
@@ -12161,7 +12184,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>123</v>
       </c>
@@ -12181,7 +12204,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>123</v>
       </c>
@@ -12201,7 +12224,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>123</v>
       </c>
@@ -12221,7 +12244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>807</v>
       </c>
@@ -12241,7 +12264,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>807</v>
       </c>
@@ -12258,7 +12281,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>807</v>
       </c>
@@ -12278,7 +12301,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>807</v>
       </c>
@@ -12298,7 +12321,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>807</v>
       </c>
@@ -12318,7 +12341,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>807</v>
       </c>
@@ -12338,7 +12361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>807</v>
       </c>
@@ -12355,7 +12378,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>807</v>
       </c>
@@ -12375,7 +12398,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>807</v>
       </c>
@@ -12395,7 +12418,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>807</v>
       </c>
@@ -12412,7 +12435,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>807</v>
       </c>
@@ -12429,7 +12452,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>807</v>
       </c>
@@ -12446,7 +12469,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>807</v>
       </c>
@@ -12463,7 +12486,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>807</v>
       </c>
@@ -12483,7 +12506,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>807</v>
       </c>
@@ -12503,7 +12526,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>807</v>
       </c>
@@ -12523,7 +12546,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>807</v>
       </c>
@@ -12543,7 +12566,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>807</v>
       </c>
@@ -12560,7 +12583,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>807</v>
       </c>
@@ -12580,7 +12603,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>807</v>
       </c>
@@ -12600,7 +12623,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>807</v>
       </c>
@@ -12620,7 +12643,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>807</v>
       </c>
@@ -12640,7 +12663,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>436</v>
       </c>
@@ -12660,7 +12683,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>436</v>
       </c>
@@ -12680,7 +12703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>436</v>
       </c>
@@ -12700,7 +12723,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>436</v>
       </c>
@@ -12720,7 +12743,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>436</v>
       </c>
@@ -12740,7 +12763,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>436</v>
       </c>
@@ -12760,7 +12783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>436</v>
       </c>
@@ -12777,7 +12800,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>436</v>
       </c>
@@ -12797,7 +12820,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>436</v>
       </c>
@@ -12817,7 +12840,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>436</v>
       </c>
@@ -12834,7 +12857,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>436</v>
       </c>
@@ -12854,7 +12877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>436</v>
       </c>
@@ -12871,7 +12894,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>436</v>
       </c>
@@ -12891,7 +12914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>436</v>
       </c>
@@ -12911,7 +12934,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>436</v>
       </c>
@@ -12931,7 +12954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>436</v>
       </c>
@@ -12951,7 +12974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>436</v>
       </c>
@@ -12971,7 +12994,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>436</v>
       </c>
@@ -12988,7 +13011,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>436</v>
       </c>
@@ -13008,7 +13031,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -13028,7 +13051,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>436</v>
       </c>
@@ -13048,7 +13071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>436</v>
       </c>
@@ -13068,7 +13091,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>92</v>
       </c>
@@ -13088,7 +13111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>92</v>
       </c>
@@ -13108,7 +13131,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>92</v>
       </c>
@@ -13128,7 +13151,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>92</v>
       </c>
@@ -13145,7 +13168,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>92</v>
       </c>
@@ -13165,7 +13188,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>92</v>
       </c>
@@ -13185,7 +13208,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>92</v>
       </c>
@@ -13202,7 +13225,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>92</v>
       </c>
@@ -13219,7 +13242,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>92</v>
       </c>
@@ -13239,7 +13262,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>92</v>
       </c>
@@ -13259,7 +13282,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>92</v>
       </c>
@@ -13279,7 +13302,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>92</v>
       </c>
@@ -13299,7 +13322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>92</v>
       </c>
@@ -13319,7 +13342,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>92</v>
       </c>
@@ -13336,7 +13359,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>92</v>
       </c>
@@ -13356,7 +13379,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>92</v>
       </c>
@@ -13373,7 +13396,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>92</v>
       </c>
@@ -13390,7 +13413,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>92</v>
       </c>
@@ -13410,7 +13433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>92</v>
       </c>
@@ -13427,7 +13450,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>92</v>
       </c>
@@ -13447,7 +13470,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>92</v>
       </c>
@@ -13467,7 +13490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>92</v>
       </c>
@@ -13487,7 +13510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>92</v>
       </c>
@@ -13507,7 +13530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>92</v>
       </c>
@@ -13527,7 +13550,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>92</v>
       </c>
@@ -13547,7 +13570,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>92</v>
       </c>
@@ -13567,7 +13590,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>92</v>
       </c>
@@ -13587,7 +13610,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>92</v>
       </c>
@@ -13607,7 +13630,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>92</v>
       </c>
@@ -13627,7 +13650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>92</v>
       </c>
@@ -13647,7 +13670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>92</v>
       </c>
@@ -13664,7 +13687,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>92</v>
       </c>
@@ -13684,7 +13707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>92</v>
       </c>
@@ -13704,7 +13727,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>92</v>
       </c>
@@ -13724,7 +13747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>92</v>
       </c>
@@ -13741,7 +13764,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>92</v>
       </c>
@@ -13761,7 +13784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>92</v>
       </c>
@@ -13781,7 +13804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>92</v>
       </c>
@@ -13798,7 +13821,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>92</v>
       </c>
@@ -13818,7 +13841,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>260</v>
       </c>
@@ -13838,7 +13861,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>260</v>
       </c>
@@ -13858,7 +13881,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>260</v>
       </c>
@@ -13878,7 +13901,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>260</v>
       </c>
@@ -13898,7 +13921,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>260</v>
       </c>
@@ -13918,7 +13941,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>260</v>
       </c>
@@ -13938,7 +13961,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>260</v>
       </c>
@@ -13958,7 +13981,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>260</v>
       </c>
@@ -13978,7 +14001,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>260</v>
       </c>
@@ -13998,7 +14021,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>260</v>
       </c>
@@ -14018,7 +14041,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>260</v>
       </c>
@@ -14035,7 +14058,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>260</v>
       </c>
@@ -14055,7 +14078,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>260</v>
       </c>
@@ -14075,7 +14098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>260</v>
       </c>
@@ -14095,7 +14118,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>260</v>
       </c>
@@ -14115,7 +14138,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>260</v>
       </c>
@@ -14135,7 +14158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>260</v>
       </c>
@@ -14155,7 +14178,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>260</v>
       </c>
@@ -14175,7 +14198,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>260</v>
       </c>
@@ -14195,7 +14218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>260</v>
       </c>
@@ -14215,7 +14238,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>260</v>
       </c>
@@ -14235,7 +14258,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>260</v>
       </c>
@@ -14255,7 +14278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>260</v>
       </c>
@@ -14275,7 +14298,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>260</v>
       </c>
@@ -14295,7 +14318,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1151</v>
       </c>
@@ -14312,7 +14335,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="504" spans="1:6">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1151</v>
       </c>
@@ -14332,7 +14355,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1151</v>
       </c>
@@ -14352,7 +14375,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="506" spans="1:6">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1151</v>
       </c>
@@ -14372,7 +14395,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="507" spans="1:6">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1151</v>
       </c>
@@ -14389,7 +14412,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="508" spans="1:6">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1151</v>
       </c>
@@ -14409,7 +14432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="509" spans="1:6">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1151</v>
       </c>
@@ -14429,7 +14452,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="510" spans="1:6">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1151</v>
       </c>
@@ -14446,7 +14469,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="511" spans="1:6">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>34</v>
       </c>
@@ -14463,7 +14486,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="512" spans="1:6">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>34</v>
       </c>
@@ -14480,7 +14503,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>34</v>
       </c>
@@ -14500,7 +14523,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="514" spans="1:6">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>34</v>
       </c>
@@ -14517,7 +14540,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>34</v>
       </c>
@@ -14534,7 +14557,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>34</v>
       </c>
@@ -14551,7 +14574,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>34</v>
       </c>
@@ -14568,7 +14591,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>34</v>
       </c>
@@ -14588,7 +14611,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>34</v>
       </c>
@@ -14605,7 +14628,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>34</v>
       </c>
@@ -14622,7 +14645,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>34</v>
       </c>
@@ -14639,7 +14662,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="522" spans="1:6">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>34</v>
       </c>
@@ -14659,7 +14682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>34</v>
       </c>
@@ -14676,7 +14699,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>34</v>
       </c>
@@ -14696,7 +14719,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>34</v>
       </c>
@@ -14713,7 +14736,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>34</v>
       </c>
@@ -14730,7 +14753,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>34</v>
       </c>
@@ -14750,7 +14773,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>34</v>
       </c>
@@ -14767,7 +14790,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>34</v>
       </c>
@@ -14787,7 +14810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>34</v>
       </c>
@@ -14804,7 +14827,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>34</v>
       </c>
@@ -14821,7 +14844,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>34</v>
       </c>
@@ -14841,7 +14864,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="533" spans="1:6">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>34</v>
       </c>
@@ -14861,7 +14884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>34</v>
       </c>
@@ -14881,7 +14904,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>34</v>
       </c>
@@ -14901,7 +14924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>34</v>
       </c>
@@ -14918,7 +14941,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>34</v>
       </c>
@@ -14938,7 +14961,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>34</v>
       </c>
@@ -14955,7 +14978,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>34</v>
       </c>
@@ -14975,7 +14998,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>34</v>
       </c>
@@ -14995,7 +15018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>34</v>
       </c>
@@ -15012,7 +15035,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>34</v>
       </c>
@@ -15032,7 +15055,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>34</v>
       </c>
@@ -15052,7 +15075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>34</v>
       </c>
@@ -15069,7 +15092,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>34</v>
       </c>
@@ -15089,7 +15112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>34</v>
       </c>
@@ -15106,7 +15129,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>34</v>
       </c>
@@ -15126,7 +15149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>34</v>
       </c>
@@ -15146,7 +15169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>34</v>
       </c>
@@ -15166,7 +15189,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>34</v>
       </c>
@@ -15183,7 +15206,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>34</v>
       </c>
@@ -15203,7 +15226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>34</v>
       </c>
@@ -15220,7 +15243,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>34</v>
       </c>
@@ -15237,7 +15260,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>34</v>
       </c>
@@ -15254,7 +15277,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>34</v>
       </c>
@@ -15271,7 +15294,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>34</v>
       </c>
@@ -15288,7 +15311,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>34</v>
       </c>
@@ -15308,7 +15331,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>34</v>
       </c>
@@ -15325,7 +15348,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>34</v>
       </c>
@@ -15342,7 +15365,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>34</v>
       </c>
@@ -15362,7 +15385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>34</v>
       </c>
@@ -15379,7 +15402,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>34</v>
       </c>
@@ -15396,7 +15419,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>34</v>
       </c>
@@ -15416,7 +15439,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>34</v>
       </c>
@@ -15436,7 +15459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>34</v>
       </c>
@@ -15453,7 +15476,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>34</v>
       </c>
@@ -15473,7 +15496,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>34</v>
       </c>
@@ -15490,7 +15513,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>34</v>
       </c>
@@ -15510,7 +15533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>34</v>
       </c>
@@ -15530,7 +15553,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>34</v>
       </c>
@@ -15550,7 +15573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="571" spans="1:6">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>34</v>
       </c>
@@ -15567,7 +15590,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>34</v>
       </c>
@@ -15584,7 +15607,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>34</v>
       </c>
@@ -15601,7 +15624,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="574" spans="1:6">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>34</v>
       </c>
@@ -15621,7 +15644,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="575" spans="1:6">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>34</v>
       </c>
@@ -15638,7 +15661,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="576" spans="1:6">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>34</v>
       </c>
@@ -15655,7 +15678,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="577" spans="1:6">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>34</v>
       </c>
@@ -15675,7 +15698,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="578" spans="1:6">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>34</v>
       </c>
@@ -15692,7 +15715,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="579" spans="1:6">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>34</v>
       </c>
@@ -15712,7 +15735,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="580" spans="1:6">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>34</v>
       </c>
@@ -15732,7 +15755,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="581" spans="1:6">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>118</v>
       </c>
@@ -15749,7 +15772,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="582" spans="1:6">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>152</v>
       </c>
@@ -15766,7 +15789,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="583" spans="1:6">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1151</v>
       </c>
@@ -15783,7 +15806,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="584" spans="1:6">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>260</v>
       </c>
@@ -15794,7 +15817,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="585" spans="1:6">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>152</v>
       </c>
@@ -15811,7 +15834,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="586" spans="1:6">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>152</v>
       </c>
@@ -15825,7 +15848,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="587" spans="1:6">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1151</v>
       </c>
@@ -15842,7 +15865,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="588" spans="1:6">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1151</v>
       </c>
@@ -15853,7 +15876,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="589" spans="1:6">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1151</v>
       </c>
@@ -15864,7 +15887,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>152</v>
       </c>
@@ -15875,7 +15898,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="591" spans="1:6">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1151</v>
       </c>
@@ -15886,8 +15909,52 @@
         <v>1304</v>
       </c>
     </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>5</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E592" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>5</v>
+      </c>
+      <c r="D593" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E593" s="2" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>5</v>
+      </c>
+      <c r="D594" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E594" s="2" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>13</v>
+      </c>
+      <c r="D595" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E595" s="2" t="s">
+        <v>1310</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F589" xr:uid="{55D6909E-3A60-47F5-8011-F4DD8781C356}">
+  <autoFilter ref="A1:F589">
     <sortState ref="A2:F589">
       <sortCondition ref="A1:A589"/>
     </sortState>

--- a/classificao_acoes.xlsx
+++ b/classificao_acoes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\riowanew002p\data\code\notebooks\DEV\Untitled Folder\kalman_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07589E83-6FE2-4FC3-8CAC-BA3BF1F51EF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="675" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="7200" yWindow="675" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classificao_acoes" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">classificao_acoes!$A$1:$F$589</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="1334">
   <si>
     <t>SETOR ECONÔMICO</t>
   </si>
@@ -3955,13 +3956,82 @@
   </si>
   <si>
     <t>CZLT</t>
+  </si>
+  <si>
+    <t>VAGR3</t>
+  </si>
+  <si>
+    <t>VAGR</t>
+  </si>
+  <si>
+    <t>TMAR5</t>
+  </si>
+  <si>
+    <t>TMAR</t>
+  </si>
+  <si>
+    <t>TAMM4</t>
+  </si>
+  <si>
+    <t>TAMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens Industriais </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Transporte </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serviços de Apoio e Armazenagem</t>
+  </si>
+  <si>
+    <t>PRML3</t>
+  </si>
+  <si>
+    <t>PRML</t>
+  </si>
+  <si>
+    <t>NETC4</t>
+  </si>
+  <si>
+    <t>NETC</t>
+  </si>
+  <si>
+    <t>ECOD3</t>
+  </si>
+  <si>
+    <t>ECOD</t>
+  </si>
+  <si>
+    <t>BHGR</t>
+  </si>
+  <si>
+    <t>INPR</t>
+  </si>
+  <si>
+    <t>MRSL3</t>
+  </si>
+  <si>
+    <t>MRSL</t>
+  </si>
+  <si>
+    <t>ARTR3</t>
+  </si>
+  <si>
+    <t>ARTR</t>
+  </si>
+  <si>
+    <t>BEMA3</t>
+  </si>
+  <si>
+    <t>BEMA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4108,6 +4178,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4451,12 +4527,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4777,14 +4856,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F595"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
-      <selection activeCell="B569" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0">
+      <selection activeCell="E606" sqref="E606"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
@@ -4794,7 +4873,7 @@
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4814,7 +4893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -4834,7 +4913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -4851,7 +4930,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -4871,7 +4950,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -4888,7 +4967,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -4905,7 +4984,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -4922,7 +5001,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -4939,7 +5018,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -4959,7 +5038,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -4979,7 +5058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4996,7 +5075,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -5016,7 +5095,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -5036,7 +5115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -5056,7 +5135,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -5076,7 +5155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -5093,7 +5172,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -5110,7 +5189,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -5130,7 +5209,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -5150,7 +5229,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -5167,7 +5246,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>118</v>
       </c>
@@ -5184,7 +5263,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>118</v>
       </c>
@@ -5201,7 +5280,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -5221,7 +5300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -5238,7 +5317,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -5258,7 +5337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -5275,7 +5354,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>118</v>
       </c>
@@ -5295,7 +5374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -5315,7 +5394,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -5335,7 +5414,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -5355,7 +5434,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -5375,7 +5454,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>118</v>
       </c>
@@ -5395,7 +5474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -5415,7 +5494,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -5435,7 +5514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -5455,7 +5534,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -5475,7 +5554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -5495,7 +5574,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -5512,7 +5591,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -5529,7 +5608,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -5549,7 +5628,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -5569,7 +5648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -5586,7 +5665,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -5606,7 +5685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>118</v>
       </c>
@@ -5623,7 +5702,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -5643,7 +5722,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -5663,7 +5742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -5680,7 +5759,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -5697,7 +5776,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>118</v>
       </c>
@@ -5717,7 +5796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -5734,7 +5813,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -5754,7 +5833,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -5771,7 +5850,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>118</v>
       </c>
@@ -5788,7 +5867,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -5805,7 +5884,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>118</v>
       </c>
@@ -5822,7 +5901,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -5842,7 +5921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -5862,7 +5941,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -5879,7 +5958,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -5896,7 +5975,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -5916,7 +5995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -5936,7 +6015,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -5956,7 +6035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>118</v>
       </c>
@@ -5976,7 +6055,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>118</v>
       </c>
@@ -5993,7 +6072,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -6010,7 +6089,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -6030,7 +6109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -6050,7 +6129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -6067,7 +6146,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -6084,7 +6163,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>118</v>
       </c>
@@ -6101,7 +6180,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -6118,7 +6197,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>118</v>
       </c>
@@ -6135,7 +6214,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -6152,7 +6231,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -6172,7 +6251,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>118</v>
       </c>
@@ -6192,7 +6271,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -6209,7 +6288,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>118</v>
       </c>
@@ -6229,7 +6308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>118</v>
       </c>
@@ -6249,7 +6328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -6266,7 +6345,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>118</v>
       </c>
@@ -6286,7 +6365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>118</v>
       </c>
@@ -6306,7 +6385,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>118</v>
       </c>
@@ -6326,7 +6405,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>118</v>
       </c>
@@ -6346,7 +6425,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>118</v>
       </c>
@@ -6366,7 +6445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -6383,7 +6462,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>118</v>
       </c>
@@ -6400,7 +6479,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>118</v>
       </c>
@@ -6420,7 +6499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -6437,7 +6516,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>118</v>
       </c>
@@ -6457,7 +6536,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -6474,7 +6553,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -6491,7 +6570,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -6508,7 +6587,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -6528,7 +6607,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -6548,7 +6627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -6568,7 +6647,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -6588,7 +6667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -6608,7 +6687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -6628,7 +6707,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -6648,7 +6727,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -6665,7 +6744,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -6685,7 +6764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -6702,7 +6781,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -6722,7 +6801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -6739,7 +6818,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -6756,7 +6835,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -6773,7 +6852,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -6793,7 +6872,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -6810,7 +6889,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -6830,7 +6909,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -6850,7 +6929,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -6870,7 +6949,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -6890,7 +6969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -6907,7 +6986,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -6924,7 +7003,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -6941,7 +7020,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -6961,7 +7040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -6981,7 +7060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -6998,7 +7077,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -7018,7 +7097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -7038,7 +7117,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -7055,7 +7134,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -7072,7 +7151,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -7089,7 +7168,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -7109,7 +7188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -7126,7 +7205,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -7146,7 +7225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -7166,7 +7245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -7186,7 +7265,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -7206,7 +7285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -7226,7 +7305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -7246,7 +7325,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -7266,7 +7345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -7286,7 +7365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -7303,7 +7382,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -7323,7 +7402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -7343,7 +7422,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -7360,7 +7439,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -7380,7 +7459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -7400,7 +7479,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -7417,7 +7496,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -7434,7 +7513,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -7454,7 +7533,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -7474,7 +7553,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -7491,7 +7570,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -7511,7 +7590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -7531,7 +7610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -7551,7 +7630,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -7571,7 +7650,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -7591,7 +7670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -7611,7 +7690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -7631,7 +7710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -7651,7 +7730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -7671,7 +7750,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -7691,7 +7770,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -7711,7 +7790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -7731,7 +7810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -7748,7 +7827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -7768,7 +7847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -7785,7 +7864,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -7805,7 +7884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -7825,7 +7904,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -7845,7 +7924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -7862,7 +7941,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -7882,7 +7961,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -7902,7 +7981,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -7922,7 +8001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -7939,7 +8018,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -7956,7 +8035,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -7976,7 +8055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -7996,7 +8075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -8016,7 +8095,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -8036,7 +8115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -8056,7 +8135,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -8076,7 +8155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -8096,7 +8175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -8116,7 +8195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -8136,7 +8215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -8156,7 +8235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -8176,7 +8255,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -8193,7 +8272,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -8213,7 +8292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -8233,7 +8312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -8253,7 +8332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -8270,7 +8349,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -8290,7 +8369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -8310,7 +8389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -8327,7 +8406,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -8347,7 +8426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -8367,7 +8446,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -8387,7 +8466,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -8404,7 +8483,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -8424,7 +8503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -8441,7 +8520,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -8461,7 +8540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -8481,7 +8560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -8501,7 +8580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -8518,7 +8597,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -8535,7 +8614,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -8555,7 +8634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -8572,7 +8651,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -8589,7 +8668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -8609,7 +8688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -8626,7 +8705,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -8646,7 +8725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -8663,7 +8742,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -8683,7 +8762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -8703,7 +8782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -8723,7 +8802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6">
       <c r="A209" t="s">
         <v>13</v>
       </c>
@@ -8743,7 +8822,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -8763,7 +8842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6">
       <c r="A211" t="s">
         <v>13</v>
       </c>
@@ -8783,7 +8862,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -8803,7 +8882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -8820,7 +8899,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -8840,7 +8919,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -8860,7 +8939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -8880,7 +8959,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -8900,7 +8979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6">
       <c r="A218" t="s">
         <v>13</v>
       </c>
@@ -8917,7 +8996,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6">
       <c r="A219" t="s">
         <v>13</v>
       </c>
@@ -8934,7 +9013,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -8954,7 +9033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -8974,7 +9053,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -8994,7 +9073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6">
       <c r="A223" t="s">
         <v>13</v>
       </c>
@@ -9014,7 +9093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -9031,7 +9110,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6">
       <c r="A225" t="s">
         <v>13</v>
       </c>
@@ -9051,7 +9130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -9071,7 +9150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -9088,7 +9167,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6">
       <c r="A228" t="s">
         <v>13</v>
       </c>
@@ -9108,7 +9187,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6">
       <c r="A229" t="s">
         <v>13</v>
       </c>
@@ -9128,7 +9207,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -9148,7 +9227,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -9165,7 +9244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6">
       <c r="A232" t="s">
         <v>13</v>
       </c>
@@ -9185,7 +9264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -9205,7 +9284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6">
       <c r="A234" t="s">
         <v>13</v>
       </c>
@@ -9225,7 +9304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6">
       <c r="A235" t="s">
         <v>13</v>
       </c>
@@ -9245,7 +9324,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -9265,7 +9344,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6">
       <c r="A237" t="s">
         <v>152</v>
       </c>
@@ -9285,7 +9364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6">
       <c r="A238" t="s">
         <v>152</v>
       </c>
@@ -9305,7 +9384,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6">
       <c r="A239" t="s">
         <v>152</v>
       </c>
@@ -9325,7 +9404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6">
       <c r="A240" t="s">
         <v>152</v>
       </c>
@@ -9345,7 +9424,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6">
       <c r="A241" t="s">
         <v>152</v>
       </c>
@@ -9362,7 +9441,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6">
       <c r="A242" t="s">
         <v>152</v>
       </c>
@@ -9382,7 +9461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6">
       <c r="A243" t="s">
         <v>152</v>
       </c>
@@ -9402,7 +9481,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6">
       <c r="A244" t="s">
         <v>152</v>
       </c>
@@ -9422,7 +9501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6">
       <c r="A245" t="s">
         <v>152</v>
       </c>
@@ -9439,7 +9518,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6">
       <c r="A246" t="s">
         <v>152</v>
       </c>
@@ -9459,7 +9538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6">
       <c r="A247" t="s">
         <v>152</v>
       </c>
@@ -9479,7 +9558,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6">
       <c r="A248" t="s">
         <v>152</v>
       </c>
@@ -9499,7 +9578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6">
       <c r="A249" t="s">
         <v>152</v>
       </c>
@@ -9519,7 +9598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6">
       <c r="A250" t="s">
         <v>152</v>
       </c>
@@ -9536,7 +9615,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6">
       <c r="A251" t="s">
         <v>152</v>
       </c>
@@ -9553,7 +9632,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6">
       <c r="A252" t="s">
         <v>152</v>
       </c>
@@ -9570,7 +9649,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6">
       <c r="A253" t="s">
         <v>152</v>
       </c>
@@ -9590,7 +9669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6">
       <c r="A254" t="s">
         <v>152</v>
       </c>
@@ -9607,7 +9686,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6">
       <c r="A255" t="s">
         <v>152</v>
       </c>
@@ -9624,7 +9703,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6">
       <c r="A256" t="s">
         <v>152</v>
       </c>
@@ -9644,7 +9723,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6">
       <c r="A257" t="s">
         <v>152</v>
       </c>
@@ -9664,7 +9743,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6">
       <c r="A258" t="s">
         <v>152</v>
       </c>
@@ -9681,7 +9760,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6">
       <c r="A259" t="s">
         <v>152</v>
       </c>
@@ -9698,7 +9777,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6">
       <c r="A260" t="s">
         <v>152</v>
       </c>
@@ -9715,7 +9794,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6">
       <c r="A261" t="s">
         <v>152</v>
       </c>
@@ -9735,7 +9814,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6">
       <c r="A262" t="s">
         <v>152</v>
       </c>
@@ -9755,7 +9834,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6">
       <c r="A263" t="s">
         <v>152</v>
       </c>
@@ -9775,7 +9854,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6">
       <c r="A264" t="s">
         <v>152</v>
       </c>
@@ -9795,7 +9874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6">
       <c r="A265" t="s">
         <v>152</v>
       </c>
@@ -9812,7 +9891,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6">
       <c r="A266" t="s">
         <v>152</v>
       </c>
@@ -9832,7 +9911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6">
       <c r="A267" t="s">
         <v>152</v>
       </c>
@@ -9849,7 +9928,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6">
       <c r="A268" t="s">
         <v>152</v>
       </c>
@@ -9869,7 +9948,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
         <v>152</v>
       </c>
@@ -9886,7 +9965,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6">
       <c r="A270" t="s">
         <v>152</v>
       </c>
@@ -9903,7 +9982,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
         <v>152</v>
       </c>
@@ -9920,7 +9999,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
         <v>152</v>
       </c>
@@ -9937,7 +10016,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6">
       <c r="A273" t="s">
         <v>152</v>
       </c>
@@ -9957,7 +10036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6">
       <c r="A274" t="s">
         <v>152</v>
       </c>
@@ -9977,7 +10056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6">
       <c r="A275" t="s">
         <v>152</v>
       </c>
@@ -9997,7 +10076,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6">
       <c r="A276" t="s">
         <v>152</v>
       </c>
@@ -10014,7 +10093,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
         <v>152</v>
       </c>
@@ -10031,7 +10110,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6">
       <c r="A278" t="s">
         <v>152</v>
       </c>
@@ -10048,7 +10127,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6">
       <c r="A279" t="s">
         <v>152</v>
       </c>
@@ -10065,7 +10144,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6">
       <c r="A280" t="s">
         <v>152</v>
       </c>
@@ -10082,7 +10161,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6">
       <c r="A281" t="s">
         <v>152</v>
       </c>
@@ -10099,7 +10178,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6">
       <c r="A282" t="s">
         <v>152</v>
       </c>
@@ -10119,7 +10198,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6">
       <c r="A283" t="s">
         <v>152</v>
       </c>
@@ -10136,7 +10215,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6">
       <c r="A284" t="s">
         <v>152</v>
       </c>
@@ -10156,7 +10235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6">
       <c r="A285" t="s">
         <v>152</v>
       </c>
@@ -10176,7 +10255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6">
       <c r="A286" t="s">
         <v>152</v>
       </c>
@@ -10193,7 +10272,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6">
       <c r="A287" t="s">
         <v>152</v>
       </c>
@@ -10210,7 +10289,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6">
       <c r="A288" t="s">
         <v>152</v>
       </c>
@@ -10227,7 +10306,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6">
       <c r="A289" t="s">
         <v>152</v>
       </c>
@@ -10247,7 +10326,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6">
       <c r="A290" t="s">
         <v>152</v>
       </c>
@@ -10267,7 +10346,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6">
       <c r="A291" t="s">
         <v>152</v>
       </c>
@@ -10284,7 +10363,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6">
       <c r="A292" t="s">
         <v>152</v>
       </c>
@@ -10301,7 +10380,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6">
       <c r="A293" t="s">
         <v>152</v>
       </c>
@@ -10321,7 +10400,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6">
       <c r="A294" t="s">
         <v>152</v>
       </c>
@@ -10341,7 +10420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6">
       <c r="A295" t="s">
         <v>152</v>
       </c>
@@ -10361,7 +10440,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6">
       <c r="A296" t="s">
         <v>152</v>
       </c>
@@ -10378,7 +10457,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6">
       <c r="A297" t="s">
         <v>152</v>
       </c>
@@ -10395,7 +10474,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6">
       <c r="A298" t="s">
         <v>152</v>
       </c>
@@ -10415,7 +10494,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6">
       <c r="A299" t="s">
         <v>152</v>
       </c>
@@ -10435,7 +10514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6">
       <c r="A300" t="s">
         <v>152</v>
       </c>
@@ -10455,7 +10534,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6">
       <c r="A301" t="s">
         <v>152</v>
       </c>
@@ -10475,7 +10554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6">
       <c r="A302" t="s">
         <v>152</v>
       </c>
@@ -10495,7 +10574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6">
       <c r="A303" t="s">
         <v>152</v>
       </c>
@@ -10512,7 +10591,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6">
       <c r="A304" t="s">
         <v>152</v>
       </c>
@@ -10532,7 +10611,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6">
       <c r="A305" t="s">
         <v>152</v>
       </c>
@@ -10549,7 +10628,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6">
       <c r="A306" t="s">
         <v>152</v>
       </c>
@@ -10569,7 +10648,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6">
       <c r="A307" t="s">
         <v>152</v>
       </c>
@@ -10586,7 +10665,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6">
       <c r="A308" t="s">
         <v>152</v>
       </c>
@@ -10606,7 +10685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6">
       <c r="A309" t="s">
         <v>152</v>
       </c>
@@ -10626,7 +10705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6">
       <c r="A310" t="s">
         <v>152</v>
       </c>
@@ -10646,7 +10725,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6">
       <c r="A311" t="s">
         <v>152</v>
       </c>
@@ -10666,7 +10745,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6">
       <c r="A312" t="s">
         <v>152</v>
       </c>
@@ -10686,7 +10765,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6">
       <c r="A313" t="s">
         <v>152</v>
       </c>
@@ -10703,7 +10782,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6">
       <c r="A314" t="s">
         <v>152</v>
       </c>
@@ -10720,7 +10799,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6">
       <c r="A315" t="s">
         <v>152</v>
       </c>
@@ -10740,7 +10819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6">
       <c r="A316" t="s">
         <v>152</v>
       </c>
@@ -10760,7 +10839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6">
       <c r="A317" t="s">
         <v>152</v>
       </c>
@@ -10780,7 +10859,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6">
       <c r="A318" t="s">
         <v>152</v>
       </c>
@@ -10797,7 +10876,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6">
       <c r="A319" t="s">
         <v>152</v>
       </c>
@@ -10817,7 +10896,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6">
       <c r="A320" t="s">
         <v>152</v>
       </c>
@@ -10837,7 +10916,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6">
       <c r="A321" t="s">
         <v>152</v>
       </c>
@@ -10857,7 +10936,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6">
       <c r="A322" t="s">
         <v>152</v>
       </c>
@@ -10874,7 +10953,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6">
       <c r="A323" t="s">
         <v>152</v>
       </c>
@@ -10894,7 +10973,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6">
       <c r="A324" t="s">
         <v>152</v>
       </c>
@@ -10914,7 +10993,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6">
       <c r="A325" t="s">
         <v>152</v>
       </c>
@@ -10934,7 +11013,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6">
       <c r="A326" t="s">
         <v>152</v>
       </c>
@@ -10951,7 +11030,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6">
       <c r="A327" t="s">
         <v>152</v>
       </c>
@@ -10968,7 +11047,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6">
       <c r="A328" t="s">
         <v>152</v>
       </c>
@@ -10985,7 +11064,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6">
       <c r="A329" t="s">
         <v>152</v>
       </c>
@@ -11002,7 +11081,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6">
       <c r="A330" t="s">
         <v>152</v>
       </c>
@@ -11022,7 +11101,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6">
       <c r="A331" t="s">
         <v>152</v>
       </c>
@@ -11039,7 +11118,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6">
       <c r="A332" t="s">
         <v>152</v>
       </c>
@@ -11059,7 +11138,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6">
       <c r="A333" t="s">
         <v>152</v>
       </c>
@@ -11079,7 +11158,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6">
       <c r="A334" t="s">
         <v>152</v>
       </c>
@@ -11096,7 +11175,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6">
       <c r="A335" t="s">
         <v>152</v>
       </c>
@@ -11116,7 +11195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6">
       <c r="A336" t="s">
         <v>152</v>
       </c>
@@ -11136,7 +11215,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6">
       <c r="A337" t="s">
         <v>152</v>
       </c>
@@ -11156,7 +11235,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6">
       <c r="A338" t="s">
         <v>152</v>
       </c>
@@ -11173,7 +11252,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6">
       <c r="A339" t="s">
         <v>152</v>
       </c>
@@ -11190,7 +11269,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6">
       <c r="A340" t="s">
         <v>152</v>
       </c>
@@ -11210,7 +11289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6">
       <c r="A341" t="s">
         <v>152</v>
       </c>
@@ -11230,7 +11309,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6">
       <c r="A342" t="s">
         <v>152</v>
       </c>
@@ -11247,7 +11326,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6">
       <c r="A343" t="s">
         <v>152</v>
       </c>
@@ -11264,7 +11343,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6">
       <c r="A344" t="s">
         <v>152</v>
       </c>
@@ -11284,7 +11363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6">
       <c r="A345" t="s">
         <v>152</v>
       </c>
@@ -11304,7 +11383,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6">
       <c r="A346" t="s">
         <v>152</v>
       </c>
@@ -11324,7 +11403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6">
       <c r="A347" t="s">
         <v>152</v>
       </c>
@@ -11344,7 +11423,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6">
       <c r="A348" t="s">
         <v>152</v>
       </c>
@@ -11364,7 +11443,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6">
       <c r="A349" t="s">
         <v>152</v>
       </c>
@@ -11384,7 +11463,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6">
       <c r="A350" t="s">
         <v>152</v>
       </c>
@@ -11401,7 +11480,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6">
       <c r="A351" t="s">
         <v>152</v>
       </c>
@@ -11421,7 +11500,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6">
       <c r="A352" t="s">
         <v>152</v>
       </c>
@@ -11441,7 +11520,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6">
       <c r="A353" t="s">
         <v>152</v>
       </c>
@@ -11461,7 +11540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6">
       <c r="A354" t="s">
         <v>152</v>
       </c>
@@ -11478,7 +11557,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6">
       <c r="A355" t="s">
         <v>152</v>
       </c>
@@ -11495,7 +11574,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6">
       <c r="A356" t="s">
         <v>152</v>
       </c>
@@ -11515,7 +11594,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6">
       <c r="A357" t="s">
         <v>123</v>
       </c>
@@ -11535,7 +11614,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6">
       <c r="A358" t="s">
         <v>123</v>
       </c>
@@ -11555,7 +11634,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6">
       <c r="A359" t="s">
         <v>123</v>
       </c>
@@ -11575,7 +11654,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6">
       <c r="A360" t="s">
         <v>123</v>
       </c>
@@ -11592,7 +11671,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6">
       <c r="A361" t="s">
         <v>123</v>
       </c>
@@ -11609,7 +11688,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6">
       <c r="A362" t="s">
         <v>123</v>
       </c>
@@ -11629,7 +11708,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6">
       <c r="A363" t="s">
         <v>123</v>
       </c>
@@ -11649,7 +11728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6">
       <c r="A364" t="s">
         <v>123</v>
       </c>
@@ -11669,7 +11748,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6">
       <c r="A365" t="s">
         <v>123</v>
       </c>
@@ -11686,7 +11765,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6">
       <c r="A366" t="s">
         <v>123</v>
       </c>
@@ -11706,7 +11785,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6">
       <c r="A367" t="s">
         <v>123</v>
       </c>
@@ -11726,7 +11805,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6">
       <c r="A368" t="s">
         <v>123</v>
       </c>
@@ -11746,7 +11825,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6">
       <c r="A369" t="s">
         <v>123</v>
       </c>
@@ -11763,7 +11842,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6">
       <c r="A370" t="s">
         <v>123</v>
       </c>
@@ -11783,7 +11862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6">
       <c r="A371" t="s">
         <v>123</v>
       </c>
@@ -11800,7 +11879,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6">
       <c r="A372" t="s">
         <v>123</v>
       </c>
@@ -11820,7 +11899,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6">
       <c r="A373" t="s">
         <v>123</v>
       </c>
@@ -11840,7 +11919,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6">
       <c r="A374" t="s">
         <v>123</v>
       </c>
@@ -11857,7 +11936,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6">
       <c r="A375" t="s">
         <v>123</v>
       </c>
@@ -11877,7 +11956,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6">
       <c r="A376" t="s">
         <v>123</v>
       </c>
@@ -11897,7 +11976,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6">
       <c r="A377" t="s">
         <v>123</v>
       </c>
@@ -11914,7 +11993,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6">
       <c r="A378" t="s">
         <v>123</v>
       </c>
@@ -11931,7 +12010,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6">
       <c r="A379" t="s">
         <v>123</v>
       </c>
@@ -11951,7 +12030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6">
       <c r="A380" t="s">
         <v>123</v>
       </c>
@@ -11971,7 +12050,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6">
       <c r="A381" t="s">
         <v>123</v>
       </c>
@@ -11988,7 +12067,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6">
       <c r="A382" t="s">
         <v>123</v>
       </c>
@@ -12005,7 +12084,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6">
       <c r="A383" t="s">
         <v>123</v>
       </c>
@@ -12022,7 +12101,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6">
       <c r="A384" t="s">
         <v>123</v>
       </c>
@@ -12042,7 +12121,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6">
       <c r="A385" t="s">
         <v>123</v>
       </c>
@@ -12059,7 +12138,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6">
       <c r="A386" t="s">
         <v>123</v>
       </c>
@@ -12079,7 +12158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6">
       <c r="A387" t="s">
         <v>123</v>
       </c>
@@ -12096,7 +12175,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6">
       <c r="A388" t="s">
         <v>123</v>
       </c>
@@ -12113,7 +12192,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6">
       <c r="A389" t="s">
         <v>123</v>
       </c>
@@ -12130,7 +12209,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6">
       <c r="A390" t="s">
         <v>123</v>
       </c>
@@ -12150,7 +12229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6">
       <c r="A391" t="s">
         <v>123</v>
       </c>
@@ -12167,7 +12246,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6">
       <c r="A392" t="s">
         <v>123</v>
       </c>
@@ -12184,7 +12263,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6">
       <c r="A393" t="s">
         <v>123</v>
       </c>
@@ -12204,7 +12283,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6">
       <c r="A394" t="s">
         <v>123</v>
       </c>
@@ -12224,7 +12303,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6">
       <c r="A395" t="s">
         <v>123</v>
       </c>
@@ -12244,7 +12323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6">
       <c r="A396" t="s">
         <v>807</v>
       </c>
@@ -12264,7 +12343,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6">
       <c r="A397" t="s">
         <v>807</v>
       </c>
@@ -12281,7 +12360,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6">
       <c r="A398" t="s">
         <v>807</v>
       </c>
@@ -12301,7 +12380,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6">
       <c r="A399" t="s">
         <v>807</v>
       </c>
@@ -12321,7 +12400,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6">
       <c r="A400" t="s">
         <v>807</v>
       </c>
@@ -12341,7 +12420,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6">
       <c r="A401" t="s">
         <v>807</v>
       </c>
@@ -12361,7 +12440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6">
       <c r="A402" t="s">
         <v>807</v>
       </c>
@@ -12378,7 +12457,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6">
       <c r="A403" t="s">
         <v>807</v>
       </c>
@@ -12398,7 +12477,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6">
       <c r="A404" t="s">
         <v>807</v>
       </c>
@@ -12418,7 +12497,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6">
       <c r="A405" t="s">
         <v>807</v>
       </c>
@@ -12435,7 +12514,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6">
       <c r="A406" t="s">
         <v>807</v>
       </c>
@@ -12452,7 +12531,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6">
       <c r="A407" t="s">
         <v>807</v>
       </c>
@@ -12469,7 +12548,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6">
       <c r="A408" t="s">
         <v>807</v>
       </c>
@@ -12486,7 +12565,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6">
       <c r="A409" t="s">
         <v>807</v>
       </c>
@@ -12506,7 +12585,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6">
       <c r="A410" t="s">
         <v>807</v>
       </c>
@@ -12526,7 +12605,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6">
       <c r="A411" t="s">
         <v>807</v>
       </c>
@@ -12546,7 +12625,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6">
       <c r="A412" t="s">
         <v>807</v>
       </c>
@@ -12566,7 +12645,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6">
       <c r="A413" t="s">
         <v>807</v>
       </c>
@@ -12583,7 +12662,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6">
       <c r="A414" t="s">
         <v>807</v>
       </c>
@@ -12603,7 +12682,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6">
       <c r="A415" t="s">
         <v>807</v>
       </c>
@@ -12623,7 +12702,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6">
       <c r="A416" t="s">
         <v>807</v>
       </c>
@@ -12643,7 +12722,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6">
       <c r="A417" t="s">
         <v>807</v>
       </c>
@@ -12663,7 +12742,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6">
       <c r="A418" t="s">
         <v>436</v>
       </c>
@@ -12683,7 +12762,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6">
       <c r="A419" t="s">
         <v>436</v>
       </c>
@@ -12703,7 +12782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6">
       <c r="A420" t="s">
         <v>436</v>
       </c>
@@ -12723,7 +12802,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6">
       <c r="A421" t="s">
         <v>436</v>
       </c>
@@ -12743,7 +12822,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6">
       <c r="A422" t="s">
         <v>436</v>
       </c>
@@ -12763,7 +12842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6">
       <c r="A423" t="s">
         <v>436</v>
       </c>
@@ -12783,7 +12862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6">
       <c r="A424" t="s">
         <v>436</v>
       </c>
@@ -12800,7 +12879,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6">
       <c r="A425" t="s">
         <v>436</v>
       </c>
@@ -12820,7 +12899,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6">
       <c r="A426" t="s">
         <v>436</v>
       </c>
@@ -12840,7 +12919,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6">
       <c r="A427" t="s">
         <v>436</v>
       </c>
@@ -12857,7 +12936,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6">
       <c r="A428" t="s">
         <v>436</v>
       </c>
@@ -12877,7 +12956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6">
       <c r="A429" t="s">
         <v>436</v>
       </c>
@@ -12894,7 +12973,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6">
       <c r="A430" t="s">
         <v>436</v>
       </c>
@@ -12914,7 +12993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6">
       <c r="A431" t="s">
         <v>436</v>
       </c>
@@ -12934,7 +13013,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6">
       <c r="A432" t="s">
         <v>436</v>
       </c>
@@ -12954,7 +13033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6">
       <c r="A433" t="s">
         <v>436</v>
       </c>
@@ -12974,7 +13053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6">
       <c r="A434" t="s">
         <v>436</v>
       </c>
@@ -12994,7 +13073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6">
       <c r="A435" t="s">
         <v>436</v>
       </c>
@@ -13011,7 +13090,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6">
       <c r="A436" t="s">
         <v>436</v>
       </c>
@@ -13031,7 +13110,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -13051,7 +13130,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6">
       <c r="A438" t="s">
         <v>436</v>
       </c>
@@ -13071,7 +13150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6">
       <c r="A439" t="s">
         <v>436</v>
       </c>
@@ -13091,7 +13170,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6">
       <c r="A440" t="s">
         <v>92</v>
       </c>
@@ -13111,7 +13190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6">
       <c r="A441" t="s">
         <v>92</v>
       </c>
@@ -13131,7 +13210,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6">
       <c r="A442" t="s">
         <v>92</v>
       </c>
@@ -13151,7 +13230,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6">
       <c r="A443" t="s">
         <v>92</v>
       </c>
@@ -13168,7 +13247,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6">
       <c r="A444" t="s">
         <v>92</v>
       </c>
@@ -13188,7 +13267,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6">
       <c r="A445" t="s">
         <v>92</v>
       </c>
@@ -13208,7 +13287,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6">
       <c r="A446" t="s">
         <v>92</v>
       </c>
@@ -13225,7 +13304,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6">
       <c r="A447" t="s">
         <v>92</v>
       </c>
@@ -13242,7 +13321,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6">
       <c r="A448" t="s">
         <v>92</v>
       </c>
@@ -13262,7 +13341,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6">
       <c r="A449" t="s">
         <v>92</v>
       </c>
@@ -13282,7 +13361,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6">
       <c r="A450" t="s">
         <v>92</v>
       </c>
@@ -13302,7 +13381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6">
       <c r="A451" t="s">
         <v>92</v>
       </c>
@@ -13322,7 +13401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6">
       <c r="A452" t="s">
         <v>92</v>
       </c>
@@ -13342,7 +13421,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6">
       <c r="A453" t="s">
         <v>92</v>
       </c>
@@ -13359,7 +13438,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6">
       <c r="A454" t="s">
         <v>92</v>
       </c>
@@ -13379,7 +13458,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6">
       <c r="A455" t="s">
         <v>92</v>
       </c>
@@ -13396,7 +13475,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6">
       <c r="A456" t="s">
         <v>92</v>
       </c>
@@ -13413,7 +13492,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6">
       <c r="A457" t="s">
         <v>92</v>
       </c>
@@ -13433,7 +13512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6">
       <c r="A458" t="s">
         <v>92</v>
       </c>
@@ -13450,7 +13529,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6">
       <c r="A459" t="s">
         <v>92</v>
       </c>
@@ -13470,7 +13549,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6">
       <c r="A460" t="s">
         <v>92</v>
       </c>
@@ -13490,7 +13569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6">
       <c r="A461" t="s">
         <v>92</v>
       </c>
@@ -13510,7 +13589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6">
       <c r="A462" t="s">
         <v>92</v>
       </c>
@@ -13530,7 +13609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6">
       <c r="A463" t="s">
         <v>92</v>
       </c>
@@ -13550,7 +13629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6">
       <c r="A464" t="s">
         <v>92</v>
       </c>
@@ -13570,7 +13649,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6">
       <c r="A465" t="s">
         <v>92</v>
       </c>
@@ -13590,7 +13669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6">
       <c r="A466" t="s">
         <v>92</v>
       </c>
@@ -13610,7 +13689,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6">
       <c r="A467" t="s">
         <v>92</v>
       </c>
@@ -13630,7 +13709,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6">
       <c r="A468" t="s">
         <v>92</v>
       </c>
@@ -13650,7 +13729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6">
       <c r="A469" t="s">
         <v>92</v>
       </c>
@@ -13670,7 +13749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6">
       <c r="A470" t="s">
         <v>92</v>
       </c>
@@ -13687,7 +13766,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6">
       <c r="A471" t="s">
         <v>92</v>
       </c>
@@ -13707,7 +13786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6">
       <c r="A472" t="s">
         <v>92</v>
       </c>
@@ -13727,7 +13806,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6">
       <c r="A473" t="s">
         <v>92</v>
       </c>
@@ -13747,7 +13826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6">
       <c r="A474" t="s">
         <v>92</v>
       </c>
@@ -13764,7 +13843,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6">
       <c r="A475" t="s">
         <v>92</v>
       </c>
@@ -13784,7 +13863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6">
       <c r="A476" t="s">
         <v>92</v>
       </c>
@@ -13804,7 +13883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6">
       <c r="A477" t="s">
         <v>92</v>
       </c>
@@ -13821,7 +13900,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6">
       <c r="A478" t="s">
         <v>92</v>
       </c>
@@ -13841,7 +13920,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6">
       <c r="A479" t="s">
         <v>260</v>
       </c>
@@ -13861,7 +13940,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6">
       <c r="A480" t="s">
         <v>260</v>
       </c>
@@ -13881,7 +13960,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6">
       <c r="A481" t="s">
         <v>260</v>
       </c>
@@ -13901,7 +13980,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6">
       <c r="A482" t="s">
         <v>260</v>
       </c>
@@ -13921,7 +14000,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6">
       <c r="A483" t="s">
         <v>260</v>
       </c>
@@ -13941,7 +14020,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6">
       <c r="A484" t="s">
         <v>260</v>
       </c>
@@ -13961,7 +14040,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6">
       <c r="A485" t="s">
         <v>260</v>
       </c>
@@ -13981,7 +14060,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6">
       <c r="A486" t="s">
         <v>260</v>
       </c>
@@ -14001,7 +14080,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6">
       <c r="A487" t="s">
         <v>260</v>
       </c>
@@ -14021,7 +14100,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6">
       <c r="A488" t="s">
         <v>260</v>
       </c>
@@ -14041,7 +14120,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6">
       <c r="A489" t="s">
         <v>260</v>
       </c>
@@ -14058,7 +14137,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6">
       <c r="A490" t="s">
         <v>260</v>
       </c>
@@ -14078,7 +14157,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6">
       <c r="A491" t="s">
         <v>260</v>
       </c>
@@ -14098,7 +14177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6">
       <c r="A492" t="s">
         <v>260</v>
       </c>
@@ -14118,7 +14197,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6">
       <c r="A493" t="s">
         <v>260</v>
       </c>
@@ -14138,7 +14217,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6">
       <c r="A494" t="s">
         <v>260</v>
       </c>
@@ -14158,7 +14237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6">
       <c r="A495" t="s">
         <v>260</v>
       </c>
@@ -14178,7 +14257,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6">
       <c r="A496" t="s">
         <v>260</v>
       </c>
@@ -14198,7 +14277,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6">
       <c r="A497" t="s">
         <v>260</v>
       </c>
@@ -14218,7 +14297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6">
       <c r="A498" t="s">
         <v>260</v>
       </c>
@@ -14238,7 +14317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6">
       <c r="A499" t="s">
         <v>260</v>
       </c>
@@ -14258,7 +14337,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6">
       <c r="A500" t="s">
         <v>260</v>
       </c>
@@ -14278,7 +14357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6">
       <c r="A501" t="s">
         <v>260</v>
       </c>
@@ -14298,7 +14377,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6">
       <c r="A502" t="s">
         <v>260</v>
       </c>
@@ -14318,7 +14397,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6">
       <c r="A503" t="s">
         <v>1151</v>
       </c>
@@ -14335,7 +14414,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6">
       <c r="A504" t="s">
         <v>1151</v>
       </c>
@@ -14355,7 +14434,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6">
       <c r="A505" t="s">
         <v>1151</v>
       </c>
@@ -14375,7 +14454,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6">
       <c r="A506" t="s">
         <v>1151</v>
       </c>
@@ -14395,7 +14474,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6">
       <c r="A507" t="s">
         <v>1151</v>
       </c>
@@ -14412,7 +14491,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6">
       <c r="A508" t="s">
         <v>1151</v>
       </c>
@@ -14432,7 +14511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6">
       <c r="A509" t="s">
         <v>1151</v>
       </c>
@@ -14452,7 +14531,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6">
       <c r="A510" t="s">
         <v>1151</v>
       </c>
@@ -14469,7 +14548,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6">
       <c r="A511" t="s">
         <v>34</v>
       </c>
@@ -14486,7 +14565,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6">
       <c r="A512" t="s">
         <v>34</v>
       </c>
@@ -14503,7 +14582,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6">
       <c r="A513" t="s">
         <v>34</v>
       </c>
@@ -14523,7 +14602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6">
       <c r="A514" t="s">
         <v>34</v>
       </c>
@@ -14540,7 +14619,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6">
       <c r="A515" t="s">
         <v>34</v>
       </c>
@@ -14557,7 +14636,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6">
       <c r="A516" t="s">
         <v>34</v>
       </c>
@@ -14574,7 +14653,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6">
       <c r="A517" t="s">
         <v>34</v>
       </c>
@@ -14591,7 +14670,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6">
       <c r="A518" t="s">
         <v>34</v>
       </c>
@@ -14611,7 +14690,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6">
       <c r="A519" t="s">
         <v>34</v>
       </c>
@@ -14628,7 +14707,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6">
       <c r="A520" t="s">
         <v>34</v>
       </c>
@@ -14645,7 +14724,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6">
       <c r="A521" t="s">
         <v>34</v>
       </c>
@@ -14662,7 +14741,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6">
       <c r="A522" t="s">
         <v>34</v>
       </c>
@@ -14682,7 +14761,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6">
       <c r="A523" t="s">
         <v>34</v>
       </c>
@@ -14699,7 +14778,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6">
       <c r="A524" t="s">
         <v>34</v>
       </c>
@@ -14719,7 +14798,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6">
       <c r="A525" t="s">
         <v>34</v>
       </c>
@@ -14736,7 +14815,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6">
       <c r="A526" t="s">
         <v>34</v>
       </c>
@@ -14753,7 +14832,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6">
       <c r="A527" t="s">
         <v>34</v>
       </c>
@@ -14773,7 +14852,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6">
       <c r="A528" t="s">
         <v>34</v>
       </c>
@@ -14790,7 +14869,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6">
       <c r="A529" t="s">
         <v>34</v>
       </c>
@@ -14810,7 +14889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6">
       <c r="A530" t="s">
         <v>34</v>
       </c>
@@ -14827,7 +14906,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6">
       <c r="A531" t="s">
         <v>34</v>
       </c>
@@ -14844,7 +14923,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6">
       <c r="A532" t="s">
         <v>34</v>
       </c>
@@ -14864,7 +14943,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6">
       <c r="A533" t="s">
         <v>34</v>
       </c>
@@ -14884,7 +14963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6">
       <c r="A534" t="s">
         <v>34</v>
       </c>
@@ -14904,7 +14983,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6">
       <c r="A535" t="s">
         <v>34</v>
       </c>
@@ -14924,7 +15003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6">
       <c r="A536" t="s">
         <v>34</v>
       </c>
@@ -14941,7 +15020,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6">
       <c r="A537" t="s">
         <v>34</v>
       </c>
@@ -14961,7 +15040,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6">
       <c r="A538" t="s">
         <v>34</v>
       </c>
@@ -14978,7 +15057,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6">
       <c r="A539" t="s">
         <v>34</v>
       </c>
@@ -14998,7 +15077,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6">
       <c r="A540" t="s">
         <v>34</v>
       </c>
@@ -15018,7 +15097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6">
       <c r="A541" t="s">
         <v>34</v>
       </c>
@@ -15035,7 +15114,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6">
       <c r="A542" t="s">
         <v>34</v>
       </c>
@@ -15055,7 +15134,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6">
       <c r="A543" t="s">
         <v>34</v>
       </c>
@@ -15075,7 +15154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6">
       <c r="A544" t="s">
         <v>34</v>
       </c>
@@ -15092,7 +15171,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6">
       <c r="A545" t="s">
         <v>34</v>
       </c>
@@ -15112,7 +15191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6">
       <c r="A546" t="s">
         <v>34</v>
       </c>
@@ -15129,7 +15208,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6">
       <c r="A547" t="s">
         <v>34</v>
       </c>
@@ -15149,7 +15228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6">
       <c r="A548" t="s">
         <v>34</v>
       </c>
@@ -15169,7 +15248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6">
       <c r="A549" t="s">
         <v>34</v>
       </c>
@@ -15189,7 +15268,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6">
       <c r="A550" t="s">
         <v>34</v>
       </c>
@@ -15206,7 +15285,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6">
       <c r="A551" t="s">
         <v>34</v>
       </c>
@@ -15226,7 +15305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6">
       <c r="A552" t="s">
         <v>34</v>
       </c>
@@ -15243,7 +15322,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6">
       <c r="A553" t="s">
         <v>34</v>
       </c>
@@ -15260,7 +15339,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6">
       <c r="A554" t="s">
         <v>34</v>
       </c>
@@ -15277,7 +15356,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6">
       <c r="A555" t="s">
         <v>34</v>
       </c>
@@ -15294,7 +15373,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6">
       <c r="A556" t="s">
         <v>34</v>
       </c>
@@ -15311,7 +15390,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6">
       <c r="A557" t="s">
         <v>34</v>
       </c>
@@ -15331,7 +15410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6">
       <c r="A558" t="s">
         <v>34</v>
       </c>
@@ -15348,7 +15427,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6">
       <c r="A559" t="s">
         <v>34</v>
       </c>
@@ -15365,7 +15444,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6">
       <c r="A560" t="s">
         <v>34</v>
       </c>
@@ -15385,7 +15464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6">
       <c r="A561" t="s">
         <v>34</v>
       </c>
@@ -15402,7 +15481,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6">
       <c r="A562" t="s">
         <v>34</v>
       </c>
@@ -15419,7 +15498,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6">
       <c r="A563" t="s">
         <v>34</v>
       </c>
@@ -15439,7 +15518,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6">
       <c r="A564" t="s">
         <v>34</v>
       </c>
@@ -15459,7 +15538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6">
       <c r="A565" t="s">
         <v>34</v>
       </c>
@@ -15476,7 +15555,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6">
       <c r="A566" t="s">
         <v>34</v>
       </c>
@@ -15496,7 +15575,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6">
       <c r="A567" t="s">
         <v>34</v>
       </c>
@@ -15513,7 +15592,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6">
       <c r="A568" t="s">
         <v>34</v>
       </c>
@@ -15533,7 +15612,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6">
       <c r="A569" t="s">
         <v>34</v>
       </c>
@@ -15553,7 +15632,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6">
       <c r="A570" t="s">
         <v>34</v>
       </c>
@@ -15573,7 +15652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6">
       <c r="A571" t="s">
         <v>34</v>
       </c>
@@ -15590,7 +15669,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6">
       <c r="A572" t="s">
         <v>34</v>
       </c>
@@ -15607,7 +15686,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6">
       <c r="A573" t="s">
         <v>34</v>
       </c>
@@ -15624,7 +15703,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6">
       <c r="A574" t="s">
         <v>34</v>
       </c>
@@ -15644,7 +15723,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6">
       <c r="A575" t="s">
         <v>34</v>
       </c>
@@ -15661,7 +15740,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6">
       <c r="A576" t="s">
         <v>34</v>
       </c>
@@ -15678,7 +15757,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6">
       <c r="A577" t="s">
         <v>34</v>
       </c>
@@ -15698,7 +15777,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6">
       <c r="A578" t="s">
         <v>34</v>
       </c>
@@ -15715,7 +15794,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6">
       <c r="A579" t="s">
         <v>34</v>
       </c>
@@ -15735,7 +15814,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6">
       <c r="A580" t="s">
         <v>34</v>
       </c>
@@ -15755,7 +15834,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6">
       <c r="A581" t="s">
         <v>118</v>
       </c>
@@ -15772,7 +15851,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6">
       <c r="A582" t="s">
         <v>152</v>
       </c>
@@ -15789,7 +15868,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6">
       <c r="A583" t="s">
         <v>1151</v>
       </c>
@@ -15806,7 +15885,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6">
       <c r="A584" t="s">
         <v>260</v>
       </c>
@@ -15817,7 +15896,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6">
       <c r="A585" t="s">
         <v>152</v>
       </c>
@@ -15834,7 +15913,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6">
       <c r="A586" t="s">
         <v>152</v>
       </c>
@@ -15848,7 +15927,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6">
       <c r="A587" t="s">
         <v>1151</v>
       </c>
@@ -15865,7 +15944,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6">
       <c r="A588" t="s">
         <v>1151</v>
       </c>
@@ -15876,7 +15955,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6">
       <c r="A589" t="s">
         <v>1151</v>
       </c>
@@ -15887,7 +15966,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6">
       <c r="A590" t="s">
         <v>152</v>
       </c>
@@ -15898,7 +15977,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6">
       <c r="A591" t="s">
         <v>1151</v>
       </c>
@@ -15909,7 +15988,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6">
       <c r="A592" t="s">
         <v>5</v>
       </c>
@@ -15920,7 +15999,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5">
       <c r="A593" t="s">
         <v>5</v>
       </c>
@@ -15931,7 +16010,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5">
       <c r="A594" t="s">
         <v>5</v>
       </c>
@@ -15942,7 +16021,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5">
       <c r="A595" t="s">
         <v>13</v>
       </c>
@@ -15953,12 +16032,200 @@
         <v>1310</v>
       </c>
     </row>
+    <row r="596" spans="1:5">
+      <c r="A596" t="s">
+        <v>13</v>
+      </c>
+      <c r="B596" t="s">
+        <v>22</v>
+      </c>
+      <c r="C596" t="s">
+        <v>23</v>
+      </c>
+      <c r="D596" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E596" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5">
+      <c r="A597" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D597" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E597" s="2" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5">
+      <c r="A598" t="s">
+        <v>118</v>
+      </c>
+      <c r="B598" t="s">
+        <v>486</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D598" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E598" s="2" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5">
+      <c r="A599" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D599" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E599" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5">
+      <c r="A600" t="s">
+        <v>5</v>
+      </c>
+      <c r="B600" t="s">
+        <v>886</v>
+      </c>
+      <c r="C600" t="s">
+        <v>887</v>
+      </c>
+      <c r="D600" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E600" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5">
+      <c r="A601" t="s">
+        <v>436</v>
+      </c>
+      <c r="B601" t="s">
+        <v>436</v>
+      </c>
+      <c r="C601" t="s">
+        <v>518</v>
+      </c>
+      <c r="D601" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E601" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5">
+      <c r="A602" t="s">
+        <v>5</v>
+      </c>
+      <c r="B602" t="s">
+        <v>629</v>
+      </c>
+      <c r="C602" t="s">
+        <v>630</v>
+      </c>
+      <c r="D602" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E602" s="2" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5">
+      <c r="A603" t="s">
+        <v>5</v>
+      </c>
+      <c r="B603" t="s">
+        <v>633</v>
+      </c>
+      <c r="C603" t="s">
+        <v>634</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5">
+      <c r="A604" t="s">
+        <v>5</v>
+      </c>
+      <c r="B604" t="s">
+        <v>6</v>
+      </c>
+      <c r="C604" t="s">
+        <v>226</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E604" s="2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="A605" t="s">
+        <v>118</v>
+      </c>
+      <c r="B605" t="s">
+        <v>486</v>
+      </c>
+      <c r="C605" t="s">
+        <v>487</v>
+      </c>
+      <c r="D605" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E605" s="2" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="A606" t="s">
+        <v>260</v>
+      </c>
+      <c r="B606" t="s">
+        <v>261</v>
+      </c>
+      <c r="C606" t="s">
+        <v>261</v>
+      </c>
+      <c r="D606" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E606" s="2" t="s">
+        <v>1333</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F589">
+  <autoFilter ref="A1:F589" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:F589">
       <sortCondition ref="A1:A589"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>